--- a/VersionRecords/Version 5.1.4 20161206/版本Bug和特性计划及评审表v5.1.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.4 20161206/版本Bug和特性计划及评审表v5.1.4_马丁组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -351,6 +351,22 @@
   </si>
   <si>
     <t>LTS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加房源报链接异常</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1417,7 +1433,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1612,20 +1628,46 @@
       <c r="V3" s="54"/>
     </row>
     <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="39">
+        <v>42709</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="39">
+        <v>42709</v>
+      </c>
       <c r="K4" s="38"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="L4" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="O4" s="47"/>
       <c r="P4" s="39"/>
       <c r="Q4" s="47"/>
@@ -5369,7 +5411,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 T1:T1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">

--- a/VersionRecords/Version 5.1.4 20161206/版本Bug和特性计划及评审表v5.1.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.4 20161206/版本Bug和特性计划及评审表v5.1.4_马丁组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
   <si>
     <t>No</t>
   </si>
@@ -324,6 +324,25 @@
   </si>
   <si>
     <t>修正负责人</t>
+  </si>
+  <si>
+    <t>推广信息更新</t>
+  </si>
+  <si>
+    <t>mogoroom-tasktracker</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>JointRoomTriggerTask</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.JointRoomTriggerTask"}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周一中午12:00:00到周日下午18:00:00期间，每隔1小时执行一次（周日晚18点后~周一上午12点前不执行）</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -725,7 +744,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,6 +1002,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1369,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
@@ -5392,8 +5426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5473,17 +5507,17 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="87"/>
       <c r="D2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="87" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="35" t="s">
@@ -5494,49 +5528,75 @@
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="88" t="s">
         <v>60</v>
       </c>
       <c r="K2" s="42"/>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="43"/>
+      <c r="R2" s="89"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="A3" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>59</v>
+      </c>
       <c r="H3" s="37"/>
       <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
+      <c r="J3" s="88" t="s">
+        <v>97</v>
+      </c>
       <c r="K3" s="42"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="L3" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="P3" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="89"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
